--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationTesting\eclipse-workspace\selenium-framework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8457B1-54C5-4D80-A01C-F863CAEC20DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E0AF3-73F6-4723-9235-8981D4B90AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7005" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>admin1234</t>
-  </si>
-  <si>
-    <t>admin1235</t>
-  </si>
-  <si>
-    <t>admin1234@yourstore.com</t>
-  </si>
-  <si>
-    <t>admin1235@yourstore.com</t>
   </si>
 </sst>
 </file>
@@ -378,7 +366,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,18 +385,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,10 +411,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{12D82535-603A-4F2E-ADB8-BB2E2C4F8843}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{24BC0734-1785-40EA-94E8-BD79AF403A76}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{11FD12DB-1759-4430-85E2-9736FFA4B9EA}"/>
+    <hyperlink ref="A2:A3" r:id="rId2" display="admin@yourstore.com" xr:uid="{A3BA9B38-5492-455C-ABB3-1CB26406A978}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>